--- a/FR - Frame & Body/Cost/FR_A0300.xlsx
+++ b/FR - Frame & Body/Cost/FR_A0300.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github\FR - Frame &amp; Body\Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B713F2EC-B566-4463-B78D-84F7278A8967}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33DF0F5D-E291-4C38-97F4-DA062E203E89}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="283">
   <si>
     <t>University</t>
   </si>
@@ -1080,6 +1080,48 @@
   </si>
   <si>
     <t>kg</t>
+  </si>
+  <si>
+    <t>FR 0300 000</t>
+  </si>
+  <si>
+    <t>FR 0300 001</t>
+  </si>
+  <si>
+    <t>FR 0300 002</t>
+  </si>
+  <si>
+    <t>FR 0300 003</t>
+  </si>
+  <si>
+    <t>FR 0300 004</t>
+  </si>
+  <si>
+    <t>FR 0300 005</t>
+  </si>
+  <si>
+    <t>FR 0300 006</t>
+  </si>
+  <si>
+    <t>FR 0300 007</t>
+  </si>
+  <si>
+    <t>FR 0300 008</t>
+  </si>
+  <si>
+    <t>FR 0300 009</t>
+  </si>
+  <si>
+    <t>FR 0300 010</t>
+  </si>
+  <si>
+    <t>FR 0300 011</t>
+  </si>
+  <si>
+    <t>FR 0300 012</t>
+  </si>
+  <si>
+    <t>FR 0300 013</t>
   </si>
 </sst>
 </file>
@@ -3818,9 +3860,7 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3971,7 +4011,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -4428,7 +4468,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4580,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -5037,7 +5077,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5189,7 +5229,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -5580,7 +5620,7 @@
   <dimension ref="A1:XFD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5732,7 +5772,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -18424,7 +18464,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18577,7 +18617,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -18972,7 +19012,7 @@
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19151,7 +19191,7 @@
       </c>
       <c r="C8" s="109" t="str">
         <f>FR_0300_000</f>
-        <v>FR_0300_000</v>
+        <v>FR 0300 000</v>
       </c>
       <c r="D8" s="110" t="s">
         <v>11</v>
@@ -19201,7 +19241,7 @@
       </c>
       <c r="C9" s="110" t="str">
         <f>FR_0300_001</f>
-        <v>FR_0300_001</v>
+        <v>FR 0300 001</v>
       </c>
       <c r="D9" s="110" t="s">
         <v>11</v>
@@ -19251,7 +19291,7 @@
       </c>
       <c r="C10" s="110" t="str">
         <f>FR_0300_002</f>
-        <v>FR_0300_002</v>
+        <v>FR 0300 002</v>
       </c>
       <c r="D10" s="110" t="s">
         <v>11</v>
@@ -19301,7 +19341,7 @@
       </c>
       <c r="C11" s="110" t="str">
         <f>FR_0300_003</f>
-        <v>FR_0300_003</v>
+        <v>FR 0300 003</v>
       </c>
       <c r="D11" s="110" t="s">
         <v>11</v>
@@ -19351,7 +19391,7 @@
       </c>
       <c r="C12" s="110" t="str">
         <f>FR_0300_004</f>
-        <v>FR_0300_004</v>
+        <v>FR 0300 004</v>
       </c>
       <c r="D12" s="110" t="s">
         <v>11</v>
@@ -19401,7 +19441,7 @@
       </c>
       <c r="C13" s="110" t="str">
         <f>FR_0300_005</f>
-        <v>FR_0300_005</v>
+        <v>FR 0300 005</v>
       </c>
       <c r="D13" s="110" t="s">
         <v>11</v>
@@ -19451,7 +19491,7 @@
       </c>
       <c r="C14" s="110" t="str">
         <f>FR_0300_006</f>
-        <v>FR_0300_006</v>
+        <v>FR 0300 006</v>
       </c>
       <c r="D14" s="110" t="s">
         <v>11</v>
@@ -19501,7 +19541,7 @@
       </c>
       <c r="C15" s="110" t="str">
         <f>FR_0300_007</f>
-        <v>FR_0300_007</v>
+        <v>FR 0300 007</v>
       </c>
       <c r="D15" s="110" t="s">
         <v>11</v>
@@ -19551,7 +19591,7 @@
       </c>
       <c r="C16" s="110" t="str">
         <f>FR_0300_008</f>
-        <v>FR_0300_008</v>
+        <v>FR 0300 008</v>
       </c>
       <c r="D16" s="110" t="s">
         <v>11</v>
@@ -19601,7 +19641,7 @@
       </c>
       <c r="C17" s="110" t="str">
         <f>FR_0300_009</f>
-        <v>FR_0300_009</v>
+        <v>FR 0300 009</v>
       </c>
       <c r="D17" s="110" t="s">
         <v>11</v>
@@ -19651,7 +19691,7 @@
       </c>
       <c r="C18" s="194" t="str">
         <f>FR_0300_010</f>
-        <v>FR_0300_010</v>
+        <v>FR 0300 010</v>
       </c>
       <c r="D18" s="110" t="s">
         <v>11</v>
@@ -19701,7 +19741,7 @@
       </c>
       <c r="C19" s="194" t="str">
         <f>FR_0300_011</f>
-        <v>FR_0300_011</v>
+        <v>FR 0300 011</v>
       </c>
       <c r="D19" s="110" t="s">
         <v>11</v>
@@ -19751,7 +19791,7 @@
       </c>
       <c r="C20" s="194" t="str">
         <f>FR_0300_012</f>
-        <v>FR_0300_012</v>
+        <v>FR 0300 012</v>
       </c>
       <c r="D20" s="110" t="s">
         <v>11</v>
@@ -19801,7 +19841,7 @@
       </c>
       <c r="C21" s="194" t="str">
         <f>FR_0300_013</f>
-        <v>FR_0300_013</v>
+        <v>FR 0300 013</v>
       </c>
       <c r="D21" s="110" t="s">
         <v>11</v>
@@ -22102,8 +22142,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F8" location="BR_01001" display="BR_01001" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F7" location="'FR A0300'!A1" display="'FR A0300'!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F8" location="FR_0300_000!A1" display="FR_0300_000!A1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="F9" location="FR_0300_001!A1" display="FR_0300_001!A1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="F10" location="FR_0300_002!A1" display="FR_0300_002!A1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="F11" location="FR_0300_003!A1" display="FR_0300_003!A1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
@@ -22135,7 +22175,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22287,7 +22327,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -22819,9 +22859,7 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22973,7 +23011,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -23362,7 +23400,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23514,7 +23552,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -23903,7 +23941,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24054,7 +24092,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -24443,7 +24481,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24594,7 +24632,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -24983,9 +25021,7 @@
   </sheetPr>
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -28561,7 +28597,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -28944,7 +28980,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29103,7 +29139,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -29588,7 +29624,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29741,7 +29777,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -30264,7 +30300,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30415,7 +30451,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
